--- a/horas.xlsx
+++ b/horas.xlsx
@@ -430,7 +430,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -430,7 +430,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
